--- a/biology/Médecine/1397_en_santé_et_médecine/1397_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1397_en_santé_et_médecine/1397_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1397_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1397_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1397 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1397_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1397_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Venise « décide de faire hisser à bord des bateaux en quarantaine un drapeau jaune[1] », dont la couleur est encore aujourd'hui dominante dans les pavillons du signal maritime « Q-L » (« Québec-Lima »), qui signifie : « Je suis en quarantaine ».
-Un médecin est engagé par les édiles de Marseille pour « soigner pendant un an les citoyens » de la commune, contre des honoraires de quarante florins[2].
-Fondation à Valence en Espagne d'un hôpital destiné aux pèlerins, par testament du pharmacien Pedro Conill[3],[4].
-Fondation à Morieux, par Jean de Bretagne, d'un hôpital ou d'une maladrerie consacrée à la Sainte-Trinité[5].
-Un hôpital de Saint-Vaubourg est attesté à Rouen à l'emplacement d'une ancienne commanderie hospitalière[6].
-1396-1397 : création d'un hôpital à Strasbourg, futur hôpital des bourgeois, puis hôpital civil[7],[8].
-Avant 1397 : premières fondations hospitalières laïques à Kassa, et peut-être à Pécs, en Hongrie[9].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Venise « décide de faire hisser à bord des bateaux en quarantaine un drapeau jaune », dont la couleur est encore aujourd'hui dominante dans les pavillons du signal maritime « Q-L » (« Québec-Lima »), qui signifie : « Je suis en quarantaine ».
+Un médecin est engagé par les édiles de Marseille pour « soigner pendant un an les citoyens » de la commune, contre des honoraires de quarante florins.
+Fondation à Valence en Espagne d'un hôpital destiné aux pèlerins, par testament du pharmacien Pedro Conill,.
+Fondation à Morieux, par Jean de Bretagne, d'un hôpital ou d'une maladrerie consacrée à la Sainte-Trinité.
+Un hôpital de Saint-Vaubourg est attesté à Rouen à l'emplacement d'une ancienne commanderie hospitalière.
+1396-1397 : création d'un hôpital à Strasbourg, futur hôpital des bourgeois, puis hôpital civil,.
+Avant 1397 : premières fondations hospitalières laïques à Kassa, et peut-être à Pécs, en Hongrie.</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1397_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1397_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Paolo Toscanelli (mort en 1482), astronome, cartographe et médecin florentin, surtout connu pour avoir établi une carte de la route des Indes orientales par l'océan Atlantique.</t>
         </is>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1397_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1397_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Dieu-lo-Crescas Roget (date de naissance inconnue), « médecin juif, à Marseille depuis 1387 ; ses enfants ont eu pour tuteur son coreligionnaire et confrère David Gerondin[10],[11] ».</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dieu-lo-Crescas Roget (date de naissance inconnue), « médecin juif, à Marseille depuis 1387 ; ses enfants ont eu pour tuteur son coreligionnaire et confrère David Gerondin, ».</t>
         </is>
       </c>
     </row>
